--- a/Data/B2B_PageLoadTime.xlsx
+++ b/Data/B2B_PageLoadTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="88">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Navigating to HomePage of Kohinoor.foyr.com</t>
+  </si>
+  <si>
+    <t>testCoroNation3DButton</t>
+  </si>
+  <si>
+    <t>URL_CORONATION,CORONATION_HomePage_Logo_xpath</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +370,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -394,7 +406,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +446,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,6 +1795,337 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1819,18 +2165,30 @@
     <hyperlink ref="D12" r:id="rId34"/>
     <hyperlink ref="D13" r:id="rId35"/>
     <hyperlink ref="D14" r:id="rId36"/>
+    <hyperlink ref="D48" r:id="rId37"/>
+    <hyperlink ref="D49" r:id="rId38"/>
+    <hyperlink ref="D50" r:id="rId39"/>
+    <hyperlink ref="D51" r:id="rId40"/>
+    <hyperlink ref="D52" r:id="rId41"/>
+    <hyperlink ref="D53" r:id="rId42"/>
+    <hyperlink ref="D54" r:id="rId43"/>
+    <hyperlink ref="D55" r:id="rId44"/>
+    <hyperlink ref="D56" r:id="rId45"/>
+    <hyperlink ref="D57" r:id="rId46"/>
+    <hyperlink ref="D58" r:id="rId47"/>
+    <hyperlink ref="D59" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,6 +3113,254 @@
         <v>4</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,6 +3413,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
